--- a/date_validation_formula.xlsx
+++ b/date_validation_formula.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Birmingham/Work/Repositories/cmi_metadata_wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B152E9-2646-AB4A-BB10-C657C0AB9387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3320" windowWidth="42400" windowHeight="20280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2020" yWindow="4420" windowWidth="45840" windowHeight="21400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="formula and components" sheetId="2" r:id="rId1"/>
-    <sheet name="test cases" sheetId="1" r:id="rId2"/>
+    <sheet name="datetime formula and components" sheetId="2" r:id="rId1"/>
+    <sheet name="datetime test cases" sheetId="1" r:id="rId2"/>
+    <sheet name="time formula and components" sheetId="3" r:id="rId3"/>
+    <sheet name="time test cases" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
   <si>
     <t>year int &gt; 1900</t>
   </si>
@@ -487,12 +495,126 @@
   </si>
   <si>
     <t>component constraint</t>
+  </si>
+  <si>
+    <t>component of time</t>
+  </si>
+  <si>
+    <t>=AND(valid hours, valid minutes, OR(nothing after minutes, AND(valid seconds, nothing after seconds)))</t>
+  </si>
+  <si>
+    <t>INT(LEFT(A2,1))&gt;=0</t>
+  </si>
+  <si>
+    <t>INT(LEFT(A2,1))&lt;=2</t>
+  </si>
+  <si>
+    <t>NOT(MID(A2,2,1)="")</t>
+  </si>
+  <si>
+    <t>MID(A2,3,1)=":"</t>
+  </si>
+  <si>
+    <t>INT(MID(A2,4,1))&gt;=0</t>
+  </si>
+  <si>
+    <t>INT(MID(A2,4,1))&lt;=5</t>
+  </si>
+  <si>
+    <t>NOT(MID(A2,5,1)="")</t>
+  </si>
+  <si>
+    <t>INT(MID(A2,4,2))&gt;=0</t>
+  </si>
+  <si>
+    <t>INT(MID(A2,4,2))&lt;=59</t>
+  </si>
+  <si>
+    <t>MID(A2,6,1)=":"</t>
+  </si>
+  <si>
+    <t>LEN(A2)&lt;=8</t>
+  </si>
+  <si>
+    <t>INT(MID(A2,7,1))&gt;=0</t>
+  </si>
+  <si>
+    <t>INT(MID(A2,7,1))&lt;=5</t>
+  </si>
+  <si>
+    <t>NOT(MID(A2,8,1)="")</t>
+  </si>
+  <si>
+    <t>INT(MID(A2,7,2))&gt;=0</t>
+  </si>
+  <si>
+    <t>INT(MID(A2,7,2))&lt;=59</t>
+  </si>
+  <si>
+    <t>valid hours and minutes</t>
+  </si>
+  <si>
+    <t>MID(A2,6,1)=""</t>
+  </si>
+  <si>
+    <t>INT(LEFT(A2,2))&gt;=0</t>
+  </si>
+  <si>
+    <t>INT(LEFT(A2,2))&lt;=23</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09-2</t>
+  </si>
+  <si>
+    <t>09:60</t>
+  </si>
+  <si>
+    <t>09:2</t>
+  </si>
+  <si>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>09:20:0</t>
+  </si>
+  <si>
+    <t>09:20-00</t>
+  </si>
+  <si>
+    <t>09:20:00</t>
+  </si>
+  <si>
+    <t>09:20:60</t>
+  </si>
+  <si>
+    <t>09:20:60 am</t>
+  </si>
+  <si>
+    <t>24:00</t>
+  </si>
+  <si>
+    <t>23:59:59</t>
+  </si>
+  <si>
+    <t>23:60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -542,11 +664,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -560,6 +683,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -827,11 +953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,11 +1679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+      <selection activeCell="AI42" sqref="AI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6591,11 +6717,7199 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="b">
+        <f t="shared" ref="B35:B50" si="35">IFERROR(INT(LEFT(A35,4))&gt;1900, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <f t="shared" ref="C35:C50" ca="1" si="36">IFERROR(INT(LEFT(A35,4))&lt;=YEAR(NOW()), FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" ref="D35:D50" si="37">OR(MID(A35,5,1)="-", MID(A35,5,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" ref="E35:E50" si="38">IFERROR(INT(MID(A35,6,1))&gt;=0, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <f t="shared" ref="F35:F50" si="39">IFERROR(INT(MID(A35,6,1))&lt;=1, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <f t="shared" ref="G35:G50" si="40">NOT(MID(A35,7,1)="")</f>
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <f t="shared" ref="H35:H50" si="41">IFERROR(INT(MID(A35,6,2))&gt;=1, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" ref="I35:I50" si="42">IFERROR(INT(MID(A35,6,2))&lt;=12, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <f t="shared" ref="J35:J50" si="43">OR(MID(A35,8,1)="-", MID(A35,8,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <f t="shared" ref="K35:K50" si="44">IFERROR(INT(MID(A35,9,1))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <f t="shared" ref="L35:L50" si="45">IFERROR(INT(MID(A35,9,1))&lt;=3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <f t="shared" ref="M35:M50" si="46">NOT(MID(A35,10,1)="")</f>
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <f t="shared" ref="N35:N50" si="47">IFERROR(INT(MID(A35,9,2))&gt;=1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <f t="shared" ref="O35:O50" si="48">IFERROR(INT(MID(A35,9,2))&lt;=31,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <f t="shared" ref="P35:P50" si="49">OR(MID(A35,11,1)=" ", MID(A35,11,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <f t="shared" ref="Q35:Q50" si="50">IFERROR(INT(MID(A35,12,1))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <f t="shared" ref="R35:R50" si="51">IFERROR(INT(MID(A35,12,1))&lt;=2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <f t="shared" ref="S35:S50" si="52">NOT(MID(A35,13,1)="")</f>
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <f t="shared" ref="T35:T50" si="53">IFERROR(INT(MID(A35,12,2))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <f t="shared" ref="U35:U50" si="54">IFERROR(INT(MID(A35,12,2))&lt;=23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" t="b">
+        <f t="shared" ref="V35:V50" si="55">OR(MID(A35,14,1)=":", MID(A35,14,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" t="b">
+        <f t="shared" ref="W35:W50" si="56">IFERROR(INT(MID(A35,15,1))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <f t="shared" ref="X35:X50" si="57">IFERROR(INT(MID(A35,15,1))&lt;=5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <f t="shared" ref="Y35:Y50" si="58">NOT(MID(A35,16,1)="")</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" t="b">
+        <f t="shared" ref="Z35:Z50" si="59">IFERROR(INT(MID(A35,15,2))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" t="b">
+        <f t="shared" ref="AA35:AA50" si="60">IFERROR(INT(MID(A35,15,2))&lt;=59,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" t="b">
+        <f t="shared" ref="AB35:AB50" si="61">OR(MID(A35,17,1)=":", MID(A35,17,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="AC35" t="b">
+        <f t="shared" ref="AC35:AC50" si="62">IFERROR(INT(MID(A35,15,1))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" t="b">
+        <f t="shared" ref="AD35:AD50" si="63">IFERROR(INT(MID(A35,15,1))&lt;=5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <f t="shared" ref="AE35:AE50" si="64">NOT(MID(A35,19,1)="")</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" t="b">
+        <f t="shared" ref="AF35:AF50" si="65">IFERROR(INT(MID(A35,18,2))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <f t="shared" ref="AG35:AG50" si="66">IFERROR(INT(MID(A35,15,2))&lt;=59,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" t="b">
+        <f t="shared" ref="AH35:AH50" si="67">LEN(A35)&lt;=19</f>
+        <v>1</v>
+      </c>
+      <c r="AI35" t="b">
+        <f t="shared" ref="AI35:AI50" ca="1" si="68">AND(AND(IFERROR(INT(LEFT(A35,4))&gt;1900,FALSE),IFERROR(INT(LEFT(A35,4))&lt;=YEAR(NOW()),FALSE)), OR(MID(A35,5,1)="", AND(AND(MID(A35,5,1)="-",IFERROR(INT(MID(A35,6,1))&gt;=0,FALSE),IFERROR(INT(MID(A35,6,1))&lt;=1,FALSE),NOT(MID(A35,7,1)=""),IFERROR(INT(MID(A35,6,2))&gt;=1,FALSE),IFERROR(INT(MID(A35,6,2))&lt;=12,FALSE)), OR(MID(A35,8,1)="", AND(AND(MID(A35,8,1)="-",IFERROR(INT(MID(A35,9,1))&gt;=0,FALSE),IFERROR(INT(MID(A35,9,1))&lt;=3,FALSE),NOT(MID(A35,10,1)=""),IFERROR(INT(MID(A35,9,2))&gt;=1,FALSE),IFERROR(INT(MID(A35,9,2))&lt;=31,FALSE)), OR(MID(A35,11,1)="", AND(AND(MID(A35,11,1)=" ",IFERROR(INT(MID(A35,12,1))&gt;=0,FALSE),IFERROR(INT(MID(A35,12,1))&lt;=2,FALSE),NOT(MID(A35,13,1)=""),IFERROR(INT(MID(A35,12,2))&gt;=0,FALSE),IFERROR(INT(MID(A35,12,2))&lt;=23,FALSE)), OR(MID(A35,14,1)="", AND(AND(MID(A35,14,1)=":",IFERROR(INT(MID(A35,15,1))&gt;=0,FALSE),IFERROR(INT(MID(A35,15,1))&lt;=5,FALSE),NOT(MID(A35,16,1)=""),IFERROR(INT(MID(A35,15,2))&gt;=0,FALSE),IFERROR(INT(MID(A35,15,2))&lt;=59,FALSE)), OR(MID(A35,17,1)="", AND(AND(MID(A35,17,1)=":",IFERROR(INT(MID(A35,18,1))&gt;=0,FALSE),IFERROR(INT(MID(A35,18,1))&lt;=5,FALSE),NOT(MID(A35,19,1)=""),IFERROR(INT(MID(A35,18,2))&gt;=0,FALSE),IFERROR(INT(MID(A35,18,2))&lt;=59,FALSE)), LEN(A35)&lt;=19)))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="b">
+        <f t="shared" ref="AK35:AK50" ca="1" si="69">AI35=AJ35</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R36" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S36" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T36" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V36" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X36" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC36" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI36" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O37" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R37" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T37" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V37" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W37" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X37" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC37" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI37" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R38" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T38" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V38" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W38" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC38" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI38" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" t="b">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q39" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R39" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T39" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V39" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W39" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X39" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC39" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD39" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI39" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R40" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S40" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T40" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V40" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W40" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X40" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC40" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI40" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S41" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T41" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U41" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V41" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W41" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X41" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB41" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC41" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI41" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U42" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V42" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W42" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X42" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC42" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD42" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI42" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R43" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S43" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T43" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U43" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V43" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W43" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X43" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC43" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI43" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R44" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S44" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V44" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W44" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X44" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC44" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI44" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R45" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S45" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T45" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U45" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V45" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W45" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X45" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC45" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH45" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI45" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R46" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S46" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U46" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V46" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W46" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X46" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC46" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI46" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="N47" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R47" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S47" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U47" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V47" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W47" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X47" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC47" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD47" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI47" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q48" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V48" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W48" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X48" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB48" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC48" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD48" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI48" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R49" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S49" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U49" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V49" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W49" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X49" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB49" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC49" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD49" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH49" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI49" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" t="b">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U50" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V50" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W50" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X50" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AC50" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AD50" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" t="b">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH50" t="b">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI50" t="b">
+        <f t="shared" ca="1" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="b">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E52732-1D2B-9A46-941A-F60518EACF37}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="72.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="str">
+        <f>_xlfn.CONCAT("=AND(",J5,",OR(",J16,",AND(",J17,",",J22,")))")</f>
+        <v>=AND(AND(IFERROR(INT(LEFT(A2,1))&gt;=0,FALSE),IFERROR(INT(LEFT(A2,1))&lt;=2,FALSE),NOT(MID(A2,2,1)=""),IFERROR(INT(LEFT(A2,2))&gt;=0,FALSE),IFERROR(INT(LEFT(A2,2))&lt;=23,FALSE),MID(A2,3,1)=":",IFERROR(INT(MID(A2,4,1))&gt;=0,FALSE),IFERROR(INT(MID(A2,4,1))&lt;=5,FALSE),NOT(MID(A2,5,1)=""),IFERROR(INT(MID(A2,4,2))&gt;=0,FALSE),IFERROR(INT(MID(A2,4,2))&lt;=59,FALSE)),OR(MID(A2,6,1)="",AND(AND(MID(A2,6,1)=":",IFERROR(INT(MID(A2,7,1))&gt;=0,FALSE),IFERROR(INT(MID(A2,7,1))&lt;=5,FALSE),NOT(MID(A2,8,1)=""),IFERROR(INT(MID(A2,7,2))&gt;=0,FALSE),IFERROR(INT(MID(A2,7,2))&lt;=59,FALSE)),LEN(A2)&lt;=8)))</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F6" si="0">_xlfn.CONCAT("IFERROR(",E5,",FALSE)")</f>
+        <v>IFERROR(INT(LEFT(A2,1))&gt;=0,FALSE)</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT("AND(",L5,",",M5,",",N5,",",O5,",",P5,",",Q5,",",R5,",",S5,",",T5,",",U5,",",V5,")")</f>
+        <v>AND(IFERROR(INT(LEFT(A2,1))&gt;=0,FALSE),IFERROR(INT(LEFT(A2,1))&lt;=2,FALSE),NOT(MID(A2,2,1)=""),IFERROR(INT(LEFT(A2,2))&gt;=0,FALSE),IFERROR(INT(LEFT(A2,2))&lt;=23,FALSE),MID(A2,3,1)=":",IFERROR(INT(MID(A2,4,1))&gt;=0,FALSE),IFERROR(INT(MID(A2,4,1))&lt;=5,FALSE),NOT(MID(A2,5,1)=""),IFERROR(INT(MID(A2,4,2))&gt;=0,FALSE),IFERROR(INT(MID(A2,4,2))&lt;=59,FALSE))</v>
+      </c>
+      <c r="L5" t="str">
+        <f>F5</f>
+        <v>IFERROR(INT(LEFT(A2,1))&gt;=0,FALSE)</v>
+      </c>
+      <c r="M5" t="str">
+        <f>F6</f>
+        <v>IFERROR(INT(LEFT(A2,1))&lt;=2,FALSE)</v>
+      </c>
+      <c r="N5" t="str">
+        <f>F7</f>
+        <v>NOT(MID(A2,2,1)="")</v>
+      </c>
+      <c r="O5" t="str">
+        <f>F8</f>
+        <v>IFERROR(INT(LEFT(A2,2))&gt;=0,FALSE)</v>
+      </c>
+      <c r="P5" t="str">
+        <f>F9</f>
+        <v>IFERROR(INT(LEFT(A2,2))&lt;=23,FALSE)</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>F10</f>
+        <v>MID(A2,3,1)=":"</v>
+      </c>
+      <c r="R5" t="str">
+        <f>F11</f>
+        <v>IFERROR(INT(MID(A2,4,1))&gt;=0,FALSE)</v>
+      </c>
+      <c r="S5" t="str">
+        <f>F12</f>
+        <v>IFERROR(INT(MID(A2,4,1))&lt;=5,FALSE)</v>
+      </c>
+      <c r="T5" t="str">
+        <f>F13</f>
+        <v>NOT(MID(A2,5,1)="")</v>
+      </c>
+      <c r="U5" t="str">
+        <f>F14</f>
+        <v>IFERROR(INT(MID(A2,4,2))&gt;=0,FALSE)</v>
+      </c>
+      <c r="V5" t="str">
+        <f>F15</f>
+        <v>IFERROR(INT(MID(A2,4,2))&lt;=59,FALSE)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>IFERROR(INT(LEFT(A2,1))&lt;=2,FALSE)</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="str">
+        <f>E7</f>
+        <v>NOT(MID(A2,2,1)="")</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:F9" si="1">_xlfn.CONCAT("IFERROR(",E8,",FALSE)")</f>
+        <v>IFERROR(INT(LEFT(A2,2))&gt;=0,FALSE)</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>IFERROR(INT(LEFT(A2,2))&lt;=23,FALSE)</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" t="str">
+        <f>E10</f>
+        <v>MID(A2,3,1)=":"</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ref="F11:F21" si="2">_xlfn.CONCAT("IFERROR(",E11,",FALSE)")</f>
+        <v>IFERROR(INT(MID(A2,4,1))&gt;=0,FALSE)</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>IFERROR(INT(MID(A2,4,1))&lt;=5,FALSE)</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="str">
+        <f>E13</f>
+        <v>NOT(MID(A2,5,1)="")</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>IFERROR(INT(MID(A2,4,2))&gt;=0,FALSE)</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>IFERROR(INT(MID(A2,4,2))&lt;=59,FALSE)</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="str">
+        <f>E16</f>
+        <v>MID(A2,6,1)=":"</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>IFERROR(INT(MID(A2,7,1))&gt;=0,FALSE)</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT("AND(",L17,",",M17,",",N17,",",O17,",",P17,",",Q17,")")</f>
+        <v>AND(MID(A2,6,1)=":",IFERROR(INT(MID(A2,7,1))&gt;=0,FALSE),IFERROR(INT(MID(A2,7,1))&lt;=5,FALSE),NOT(MID(A2,8,1)=""),IFERROR(INT(MID(A2,7,2))&gt;=0,FALSE),IFERROR(INT(MID(A2,7,2))&lt;=59,FALSE))</v>
+      </c>
+      <c r="L17" t="str">
+        <f>F16</f>
+        <v>MID(A2,6,1)=":"</v>
+      </c>
+      <c r="M17" t="str">
+        <f>F17</f>
+        <v>IFERROR(INT(MID(A2,7,1))&gt;=0,FALSE)</v>
+      </c>
+      <c r="N17" t="str">
+        <f>F18</f>
+        <v>IFERROR(INT(MID(A2,7,1))&lt;=5,FALSE)</v>
+      </c>
+      <c r="O17" t="str">
+        <f>F19</f>
+        <v>NOT(MID(A2,8,1)="")</v>
+      </c>
+      <c r="P17" t="str">
+        <f>F20</f>
+        <v>IFERROR(INT(MID(A2,7,2))&gt;=0,FALSE)</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>F21</f>
+        <v>IFERROR(INT(MID(A2,7,2))&lt;=59,FALSE)</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>IFERROR(INT(MID(A2,7,1))&lt;=5,FALSE)</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="str">
+        <f>E19</f>
+        <v>NOT(MID(A2,8,1)="")</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>IFERROR(INT(MID(A2,7,2))&gt;=0,FALSE)</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>IFERROR(INT(MID(A2,7,2))&lt;=59,FALSE)</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" t="str">
+        <f>E22</f>
+        <v>LEN(A2)&lt;=8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" t="str">
+        <f>F22</f>
+        <v>LEN(A2)&lt;=8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D3A34-D98C-A84E-A180-01FE1F58BBF1}">
+  <dimension ref="A1:AH50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="b">
+        <f>IFERROR(INT(LEFT(A2,1))&gt;=0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IFERROR(INT(LEFT(A2,1))&lt;=2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <f>NOT(MID(A2,2,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <f>IFERROR(INT(LEFT(A2,2))&gt;=0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <f>IFERROR(INT(LEFT(A2,2))&lt;=23,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <f>MID(A2,3,1)=":"</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <f>IFERROR(INT(MID(A2,4,1))&gt;=0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <f>IFERROR(INT(MID(A2,4,1))&lt;=5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <f>NOT(MID(A2,5,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <f>IFERROR(INT(MID(A2,4,2))&gt;=0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <f>IFERROR(INT(MID(A2,4,2))&lt;=59,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <f>OR(MID(A2,6,1)=":", MID(A2,6,1)="")</f>
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <f>IFERROR(INT(MID(A2,7,1))&gt;=0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <f>IFERROR(INT(MID(A2,7,1))&lt;=5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <f>NOT(MID(A2,8,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <f>IFERROR(INT(MID(A2,7,2))&gt;=0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <f>IFERROR(INT(MID(A2,7,2))&lt;=59,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <f>LEN(A2)&lt;=8</f>
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <f>AND(AND(IFERROR(INT(LEFT(A2,1))&gt;=0,FALSE),IFERROR(INT(LEFT(A2,1))&lt;=2,FALSE),NOT(MID(A2,2,1)=""),IFERROR(INT(LEFT(A2,2))&gt;=0,FALSE),IFERROR(INT(LEFT(A2,2))&lt;=23,FALSE),MID(A2,3,1)=":",IFERROR(INT(MID(A2,4,1))&gt;=0,FALSE),IFERROR(INT(MID(A2,4,1))&lt;=5,FALSE),NOT(MID(A2,5,1)=""),IFERROR(INT(MID(A2,4,2))&gt;=0,FALSE),IFERROR(INT(MID(A2,4,2))&lt;=59,FALSE)),OR(MID(A2,6,1)="",AND(AND(MID(A2,6,1)=":",IFERROR(INT(MID(A2,7,1))&gt;=0,FALSE),IFERROR(INT(MID(A2,7,1))&lt;=5,FALSE),NOT(MID(A2,8,1)=""),IFERROR(INT(MID(A2,7,2))&gt;=0,FALSE),IFERROR(INT(MID(A2,7,2))&lt;=59,FALSE)),LEN(A2)&lt;=8)))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <f>T2=U2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="b">
+        <f t="shared" ref="B3:B50" si="0">IFERROR(INT(LEFT(A3,1))&gt;=0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C50" si="1">IFERROR(INT(LEFT(A3,1))&lt;=2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D50" si="2">NOT(MID(A3,2,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E50" si="3">IFERROR(INT(LEFT(A3,2))&gt;=0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F50" si="4">IFERROR(INT(LEFT(A3,2))&lt;=23,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G50" si="5">MID(A3,3,1)=":"</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <f t="shared" ref="H3:H50" si="6">IFERROR(INT(MID(A3,4,1))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I50" si="7">IFERROR(INT(MID(A3,4,1))&lt;=5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J50" si="8">NOT(MID(A3,5,1)="")</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K50" si="9">IFERROR(INT(MID(A3,4,2))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <f t="shared" ref="L3:L50" si="10">IFERROR(INT(MID(A3,4,2))&lt;=59,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <f t="shared" ref="M3:M50" si="11">OR(MID(A3,6,1)=":", MID(A3,6,1)="")</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N50" si="12">IFERROR(INT(MID(A3,7,1))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <f t="shared" ref="O3:O50" si="13">IFERROR(INT(MID(A3,7,1))&lt;=5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <f t="shared" ref="P3:P50" si="14">NOT(MID(A3,8,1)="")</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <f t="shared" ref="Q3:Q50" si="15">IFERROR(INT(MID(A3,7,2))&gt;=0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <f t="shared" ref="R3:R50" si="16">IFERROR(INT(MID(A3,7,2))&lt;=59,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <f t="shared" ref="S3:S50" si="17">LEN(A3)&lt;=8</f>
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <f t="shared" ref="T3:T34" si="18">AND(AND(IFERROR(INT(LEFT(A3,1))&gt;=0,FALSE),IFERROR(INT(LEFT(A3,1))&lt;=2,FALSE),NOT(MID(A3,2,1)=""),IFERROR(INT(LEFT(A3,2))&gt;=0,FALSE),IFERROR(INT(LEFT(A3,2))&lt;=23,FALSE),MID(A3,3,1)=":",IFERROR(INT(MID(A3,4,1))&gt;=0,FALSE),IFERROR(INT(MID(A3,4,1))&lt;=5,FALSE),NOT(MID(A3,5,1)=""),IFERROR(INT(MID(A3,4,2))&gt;=0,FALSE),IFERROR(INT(MID(A3,4,2))&lt;=59,FALSE)),OR(MID(A3,6,1)="",AND(AND(MID(A3,6,1)=":",IFERROR(INT(MID(A3,7,1))&gt;=0,FALSE),IFERROR(INT(MID(A3,7,1))&lt;=5,FALSE),NOT(MID(A3,8,1)=""),IFERROR(INT(MID(A3,7,2))&gt;=0,FALSE),IFERROR(INT(MID(A3,7,2))&lt;=59,FALSE)),LEN(A3)&lt;=8)))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <f t="shared" ref="V3:V34" si="19">T3=U3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T5" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T17" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T21" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T25" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T26" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R27" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T27" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R28" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T28" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R29" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T31" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N32" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R32" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S32" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T32" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S33" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T33" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C34" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S34" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T34" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T35" t="b">
+        <f t="shared" ref="T35:T50" si="20">AND(AND(IFERROR(INT(LEFT(A35,1))&gt;=0,FALSE),IFERROR(INT(LEFT(A35,1))&lt;=2,FALSE),NOT(MID(A35,2,1)=""),IFERROR(INT(LEFT(A35,2))&gt;=0,FALSE),IFERROR(INT(LEFT(A35,2))&lt;=23,FALSE),MID(A35,3,1)=":",IFERROR(INT(MID(A35,4,1))&gt;=0,FALSE),IFERROR(INT(MID(A35,4,1))&lt;=5,FALSE),NOT(MID(A35,5,1)=""),IFERROR(INT(MID(A35,4,2))&gt;=0,FALSE),IFERROR(INT(MID(A35,4,2))&lt;=59,FALSE)),OR(MID(A35,6,1)="",AND(AND(MID(A35,6,1)=":",IFERROR(INT(MID(A35,7,1))&gt;=0,FALSE),IFERROR(INT(MID(A35,7,1))&lt;=5,FALSE),NOT(MID(A35,8,1)=""),IFERROR(INT(MID(A35,7,2))&gt;=0,FALSE),IFERROR(INT(MID(A35,7,2))&lt;=59,FALSE)),LEN(A35)&lt;=8)))</f>
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="b">
+        <f t="shared" ref="V35:V50" si="21">T35=U35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R36" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S36" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T36" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O37" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R37" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T37" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R38" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T38" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R39" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T39" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R40" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S40" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T40" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S41" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T41" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T42" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N43" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R43" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S43" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T43" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R44" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S44" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T44" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N45" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O45" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P45" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R45" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S45" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T45" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="U45" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N46" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O46" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R46" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S46" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T46" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N47" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R47" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S47" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M48" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N48" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T48" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L49" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M49" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N49" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O49" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P49" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R49" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S49" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T49" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N50" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T50" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
